--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.3576797500154</v>
+        <v>259.222432</v>
       </c>
       <c r="H2">
-        <v>50.3576797500154</v>
+        <v>777.667296</v>
       </c>
       <c r="I2">
-        <v>0.4462788701678849</v>
+        <v>0.7751755260536969</v>
       </c>
       <c r="J2">
-        <v>0.4462788701678849</v>
+        <v>0.7751755260536969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.21783254819986</v>
+        <v>18.98606933333333</v>
       </c>
       <c r="N2">
-        <v>3.21783254819986</v>
+        <v>56.958208</v>
       </c>
       <c r="O2">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="P2">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="Q2">
-        <v>162.0425809514246</v>
+        <v>4921.615066707284</v>
       </c>
       <c r="R2">
-        <v>162.0425809514246</v>
+        <v>44294.53560036557</v>
       </c>
       <c r="S2">
-        <v>0.2512257859290284</v>
+        <v>0.681938027951998</v>
       </c>
       <c r="T2">
-        <v>0.2512257859290284</v>
+        <v>0.681938027951998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.3576797500154</v>
+        <v>259.222432</v>
       </c>
       <c r="H3">
-        <v>50.3576797500154</v>
+        <v>777.667296</v>
       </c>
       <c r="I3">
-        <v>0.4462788701678849</v>
+        <v>0.7751755260536969</v>
       </c>
       <c r="J3">
-        <v>0.4462788701678849</v>
+        <v>0.7751755260536969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.11465655587779</v>
+        <v>1.122490333333333</v>
       </c>
       <c r="N3">
-        <v>1.11465655587779</v>
+        <v>3.367471</v>
       </c>
       <c r="O3">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="P3">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="Q3">
-        <v>56.13151787214889</v>
+        <v>290.9746741031573</v>
       </c>
       <c r="R3">
-        <v>56.13151787214889</v>
+        <v>2618.772066928416</v>
       </c>
       <c r="S3">
-        <v>0.08702456237133846</v>
+        <v>0.0403173943415766</v>
       </c>
       <c r="T3">
-        <v>0.08702456237133846</v>
+        <v>0.0403173943415766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.3576797500154</v>
+        <v>259.222432</v>
       </c>
       <c r="H4">
-        <v>50.3576797500154</v>
+        <v>777.667296</v>
       </c>
       <c r="I4">
-        <v>0.4462788701678849</v>
+        <v>0.7751755260536969</v>
       </c>
       <c r="J4">
-        <v>0.4462788701678849</v>
+        <v>0.7751755260536969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.38368636210545</v>
+        <v>1.473366666666666</v>
       </c>
       <c r="N4">
-        <v>1.38368636210545</v>
+        <v>4.4201</v>
       </c>
       <c r="O4">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="P4">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="Q4">
-        <v>69.67923469737009</v>
+        <v>381.9296905610666</v>
       </c>
       <c r="R4">
-        <v>69.67923469737009</v>
+        <v>3437.3672150496</v>
       </c>
       <c r="S4">
-        <v>0.108028521867518</v>
+        <v>0.05292010376012227</v>
       </c>
       <c r="T4">
-        <v>0.108028521867518</v>
+        <v>0.05292010376012227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.1308942233134</v>
+        <v>48.69324</v>
       </c>
       <c r="H5">
-        <v>48.1308942233134</v>
+        <v>146.07972</v>
       </c>
       <c r="I5">
-        <v>0.4265446938933622</v>
+        <v>0.1456116572976945</v>
       </c>
       <c r="J5">
-        <v>0.4265446938933622</v>
+        <v>0.1456116572976945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.21783254819986</v>
+        <v>18.98606933333333</v>
       </c>
       <c r="N5">
-        <v>3.21783254819986</v>
+        <v>56.958208</v>
       </c>
       <c r="O5">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="P5">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="Q5">
-        <v>154.8771580057425</v>
+        <v>924.49323070464</v>
       </c>
       <c r="R5">
-        <v>154.8771580057425</v>
+        <v>8320.43907634176</v>
       </c>
       <c r="S5">
-        <v>0.2401167366873201</v>
+        <v>0.1280976025261323</v>
       </c>
       <c r="T5">
-        <v>0.2401167366873201</v>
+        <v>0.1280976025261323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.1308942233134</v>
+        <v>48.69324</v>
       </c>
       <c r="H6">
-        <v>48.1308942233134</v>
+        <v>146.07972</v>
       </c>
       <c r="I6">
-        <v>0.4265446938933622</v>
+        <v>0.1456116572976945</v>
       </c>
       <c r="J6">
-        <v>0.4265446938933622</v>
+        <v>0.1456116572976945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.11465655587779</v>
+        <v>1.122490333333333</v>
       </c>
       <c r="N6">
-        <v>1.11465655587779</v>
+        <v>3.367471</v>
       </c>
       <c r="O6">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="P6">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="Q6">
-        <v>53.64941678627672</v>
+        <v>54.65769119868001</v>
       </c>
       <c r="R6">
-        <v>53.64941678627672</v>
+        <v>491.9192207881201</v>
       </c>
       <c r="S6">
-        <v>0.08317638991942931</v>
+        <v>0.007573359078928138</v>
       </c>
       <c r="T6">
-        <v>0.08317638991942931</v>
+        <v>0.007573359078928137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.1308942233134</v>
+        <v>48.69324</v>
       </c>
       <c r="H7">
-        <v>48.1308942233134</v>
+        <v>146.07972</v>
       </c>
       <c r="I7">
-        <v>0.4265446938933622</v>
+        <v>0.1456116572976945</v>
       </c>
       <c r="J7">
-        <v>0.4265446938933622</v>
+        <v>0.1456116572976945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.38368636210545</v>
+        <v>1.473366666666666</v>
       </c>
       <c r="N7">
-        <v>1.38368636210545</v>
+        <v>4.4201</v>
       </c>
       <c r="O7">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="P7">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="Q7">
-        <v>66.59806193273873</v>
+        <v>71.74299670799999</v>
       </c>
       <c r="R7">
-        <v>66.59806193273873</v>
+        <v>645.686970372</v>
       </c>
       <c r="S7">
-        <v>0.1032515672866127</v>
+        <v>0.009940695692634104</v>
       </c>
       <c r="T7">
-        <v>0.1032515672866127</v>
+        <v>0.009940695692634102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3504670753129</v>
+        <v>26.48914766666666</v>
       </c>
       <c r="H8">
-        <v>14.3504670753129</v>
+        <v>79.46744299999999</v>
       </c>
       <c r="I8">
-        <v>0.127176435938753</v>
+        <v>0.07921281664860853</v>
       </c>
       <c r="J8">
-        <v>0.127176435938753</v>
+        <v>0.07921281664860852</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.21783254819986</v>
+        <v>18.98606933333333</v>
       </c>
       <c r="N8">
-        <v>3.21783254819986</v>
+        <v>56.958208</v>
       </c>
       <c r="O8">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="P8">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="Q8">
-        <v>46.1774000368123</v>
+        <v>502.9247941802382</v>
       </c>
       <c r="R8">
-        <v>46.1774000368123</v>
+        <v>4526.323147622144</v>
       </c>
       <c r="S8">
-        <v>0.07159200716436953</v>
+        <v>0.06968516182247661</v>
       </c>
       <c r="T8">
-        <v>0.07159200716436953</v>
+        <v>0.0696851618224766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3504670753129</v>
+        <v>26.48914766666666</v>
       </c>
       <c r="H9">
-        <v>14.3504670753129</v>
+        <v>79.46744299999999</v>
       </c>
       <c r="I9">
-        <v>0.127176435938753</v>
+        <v>0.07921281664860853</v>
       </c>
       <c r="J9">
-        <v>0.127176435938753</v>
+        <v>0.07921281664860852</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.11465655587779</v>
+        <v>1.122490333333333</v>
       </c>
       <c r="N9">
-        <v>1.11465655587779</v>
+        <v>3.367471</v>
       </c>
       <c r="O9">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="P9">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="Q9">
-        <v>15.9958422054059</v>
+        <v>29.73381219407255</v>
       </c>
       <c r="R9">
-        <v>15.9958422054059</v>
+        <v>267.604309746653</v>
       </c>
       <c r="S9">
-        <v>0.0247994570689692</v>
+        <v>0.004119911243828056</v>
       </c>
       <c r="T9">
-        <v>0.0247994570689692</v>
+        <v>0.004119911243828055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.3504670753129</v>
+        <v>26.48914766666666</v>
       </c>
       <c r="H10">
-        <v>14.3504670753129</v>
+        <v>79.46744299999999</v>
       </c>
       <c r="I10">
-        <v>0.127176435938753</v>
+        <v>0.07921281664860853</v>
       </c>
       <c r="J10">
-        <v>0.127176435938753</v>
+        <v>0.07921281664860852</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.38368636210545</v>
+        <v>1.473366666666666</v>
       </c>
       <c r="N10">
-        <v>1.38368636210545</v>
+        <v>4.4201</v>
       </c>
       <c r="O10">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="P10">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="Q10">
-        <v>19.85654558195374</v>
+        <v>39.02822720047777</v>
       </c>
       <c r="R10">
-        <v>19.85654558195374</v>
+        <v>351.2540448043</v>
       </c>
       <c r="S10">
-        <v>0.03078497170541427</v>
+        <v>0.005407743582303869</v>
       </c>
       <c r="T10">
-        <v>0.03078497170541427</v>
+        <v>0.005407743582303868</v>
       </c>
     </row>
   </sheetData>
